--- a/PythonScript/Code and Software examples-Results.xlsx
+++ b/PythonScript/Code and Software examples-Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swkim\OneDrive\Postdoc_HMS\Works\Data\Bioluminescence_Data\Code and Software Read Me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9180E58D-8C72-47C1-9B74-CE33413DCB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E57A5C-3504-4B77-A948-2C809DB06AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="3075" windowWidth="28800" windowHeight="14595" xr2:uid="{25EA9D6F-F830-4279-BBE1-08D68895F7C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{25EA9D6F-F830-4279-BBE1-08D68895F7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Trained</t>
+    <t>Sample ID</t>
   </si>
   <si>
-    <t>sample</t>
+    <t>Intensity</t>
   </si>
   <si>
-    <t>blank</t>
+    <t>Positive</t>
   </si>
   <si>
-    <t>untrained</t>
+    <t>Negative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -99,6 +104,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,176 +443,99 @@
   <dimension ref="D6:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="4:10">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="4:10">
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>7728212</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10121957</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>16488615</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="4:10">
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
-        <v>6908981</v>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5037391</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8748885</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7727422</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3412686</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7512462</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4921152</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10749173</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6584503</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1">
-        <v>11874524</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="1">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1">
-        <v>7071884</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="H14" s="1">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1">
-        <v>14054765</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
